--- a/Programacion de la Ejecucion de Proyectos/Proyectos Plan.xlsx
+++ b/Programacion de la Ejecucion de Proyectos/Proyectos Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\Programacion de la Ejecucion de Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2C24CE-E8E5-4EDB-B89C-4D6DD66A06A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF3D777-C376-45B4-8BE9-9A1F8A8FAD78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{7953C3C7-6C94-4F35-8F46-A28D673ADBAE}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="89">
   <si>
     <t>FUNCION</t>
   </si>
@@ -339,13 +339,16 @@
   <si>
     <t>NO</t>
   </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -557,7 +560,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -876,7 +879,7 @@
   <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,6 +887,7 @@
     <col min="4" max="4" width="77.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -893,6 +897,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -901,6 +906,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
+      <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -920,6 +926,9 @@
       </c>
       <c r="F3" s="32" t="s">
         <v>84</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>88</v>
       </c>
       <c r="H3" s="33"/>
     </row>

--- a/Programacion de la Ejecucion de Proyectos/Proyectos Plan.xlsx
+++ b/Programacion de la Ejecucion de Proyectos/Proyectos Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\Programacion de la Ejecucion de Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF3D777-C376-45B4-8BE9-9A1F8A8FAD78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0AE02C-906C-466E-A998-AD58872C8C93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{7953C3C7-6C94-4F35-8F46-A28D673ADBAE}"/>
+    <workbookView xWindow="1905" yWindow="7140" windowWidth="13800" windowHeight="4470" xr2:uid="{7953C3C7-6C94-4F35-8F46-A28D673ADBAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Proyectos" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="95">
   <si>
     <t>FUNCION</t>
   </si>
@@ -342,6 +342,24 @@
   <si>
     <t>Observaciones</t>
   </si>
+  <si>
+    <t>Cuenta con Pla de Trabajo.</t>
+  </si>
+  <si>
+    <t>No cuenta con la Resolución de creación del CITE acuícola de parte del Ministerio de la Producción, por lo que no se iniciara la formulación del proyecto de inversión, hasta que la entidad usuaria regularise el documento.</t>
+  </si>
+  <si>
+    <t>CULMINADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE ENCUENTRA VIABLE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE ENCUENTRA EN FORMULACION </t>
+  </si>
+  <si>
+    <t>IDEA</t>
+  </si>
 </sst>
 </file>
 
@@ -350,7 +368,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +410,22 @@
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -462,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -562,6 +596,24 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -878,15 +930,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A921ED-A0B3-4AF0-9707-4B2FAF5C7B93}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="77.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="37" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" style="37" customWidth="1"/>
     <col min="7" max="7" width="43.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -895,8 +947,8 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
       <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -904,8 +956,8 @@
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
@@ -1331,7 +1383,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>26</v>
       </c>
@@ -1345,7 +1397,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>26</v>
       </c>
@@ -1359,7 +1411,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>26</v>
       </c>
@@ -1373,7 +1425,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>26</v>
       </c>
@@ -1387,7 +1439,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>40</v>
       </c>
@@ -1400,8 +1452,17 @@
       <c r="D37" s="17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="E37" s="37">
+        <v>2019</v>
+      </c>
+      <c r="F37" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>40</v>
       </c>
@@ -1414,8 +1475,17 @@
       <c r="D38" s="17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="E38" s="37">
+        <v>2019</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>40</v>
       </c>
@@ -1428,8 +1498,17 @@
       <c r="D39" s="17" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="E39" s="37">
+        <v>2020</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>40</v>
       </c>
@@ -1442,8 +1521,17 @@
       <c r="D40" s="17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="E40" s="37">
+        <v>2020</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>40</v>
       </c>
@@ -1456,8 +1544,17 @@
       <c r="D41" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="E41" s="37">
+        <v>2020</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G41" s="40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>40</v>
       </c>
@@ -1467,7 +1564,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>47</v>
       </c>
@@ -1481,7 +1578,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>47</v>
       </c>
@@ -1495,7 +1592,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>47</v>
       </c>
@@ -1509,7 +1606,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>47</v>
       </c>
@@ -1523,7 +1620,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>47</v>
       </c>
@@ -1537,7 +1634,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>47</v>
       </c>
@@ -1551,7 +1648,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>47</v>
       </c>
@@ -1565,7 +1662,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>47</v>
       </c>
@@ -1575,7 +1672,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>47</v>
       </c>
@@ -1585,7 +1682,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -1599,7 +1696,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>57</v>
       </c>
@@ -1613,7 +1710,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>57</v>
       </c>
@@ -1627,7 +1724,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>57</v>
       </c>
@@ -1641,7 +1738,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>57</v>
       </c>
@@ -1655,7 +1752,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>57</v>
       </c>
@@ -1669,7 +1766,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
         <v>57</v>
       </c>
@@ -1683,7 +1780,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>57</v>
       </c>
@@ -1697,7 +1794,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>57</v>
       </c>
@@ -1711,7 +1808,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
         <v>67</v>
       </c>
@@ -1725,7 +1822,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A62" s="24" t="s">
         <v>67</v>
       </c>
@@ -1739,7 +1836,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
         <v>67</v>
       </c>
@@ -1753,7 +1850,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
         <v>71</v>
       </c>
@@ -1766,8 +1863,11 @@
       <c r="D64" s="31" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="G64" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="28" t="s">
         <v>71</v>
       </c>
@@ -1780,8 +1880,11 @@
       <c r="D65" s="31" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="G65" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="28" t="s">
         <v>71</v>
       </c>
@@ -1794,8 +1897,11 @@
       <c r="D66" s="31" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="G66" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="28" t="s">
         <v>71</v>
       </c>
@@ -1808,8 +1914,11 @@
       <c r="D67" s="31" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="G67" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="28" t="s">
         <v>71</v>
       </c>
@@ -1822,8 +1931,11 @@
       <c r="D68" s="31" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="G68" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="28" t="s">
         <v>71</v>
       </c>
@@ -1836,8 +1948,11 @@
       <c r="D69" s="31" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="G69" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
         <v>71</v>
       </c>
@@ -1850,8 +1965,11 @@
       <c r="D70" s="31" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="G70" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
         <v>71</v>
       </c>
@@ -1864,8 +1982,11 @@
       <c r="D71" s="31" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="G71" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="28" t="s">
         <v>71</v>
       </c>
@@ -1878,8 +1999,11 @@
       <c r="D72" s="31" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="G72" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="28" t="s">
         <v>71</v>
       </c>
@@ -1892,8 +2016,17 @@
       <c r="D73" s="31" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E73" s="37">
+        <v>2020</v>
+      </c>
+      <c r="F73" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="G73" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A74" s="28" t="s">
         <v>71</v>
       </c>
@@ -1905,6 +2038,15 @@
       </c>
       <c r="D74" s="31" t="s">
         <v>82</v>
+      </c>
+      <c r="E74" s="37">
+        <v>2020</v>
+      </c>
+      <c r="F74" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="G74" s="36" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1917,13 +2059,13 @@
           <x14:formula1>
             <xm:f>Datos!$A$2:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E74</xm:sqref>
+          <xm:sqref>E4:E36 E42:E63</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5648916B-F43A-4306-9F93-E9D8D11B9A7F}">
           <x14:formula1>
             <xm:f>Datos!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>F4:F74</xm:sqref>
+          <xm:sqref>F4:F36 F42:F63</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Programacion de la Ejecucion de Proyectos/Proyectos Plan.xlsx
+++ b/Programacion de la Ejecucion de Proyectos/Proyectos Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\Programacion de la Ejecucion de Proyectos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI-GitHub\Gestion-ORFEI\Programacion de la Ejecucion de Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0AE02C-906C-466E-A998-AD58872C8C93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FB29C3-5E63-411B-BA8A-84A38274CFB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="7140" windowWidth="13800" windowHeight="4470" xr2:uid="{7953C3C7-6C94-4F35-8F46-A28D673ADBAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{7953C3C7-6C94-4F35-8F46-A28D673ADBAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Proyectos" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -483,6 +483,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -496,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -613,6 +619,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -930,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A921ED-A0B3-4AF0-9707-4B2FAF5C7B93}">
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C35" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,7 +1343,7 @@
       <c r="B29" s="11">
         <v>6</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29" s="41">
         <v>49403</v>
       </c>
       <c r="D29" s="13" t="s">
@@ -1362,7 +1371,7 @@
       <c r="B31" s="11">
         <v>8</v>
       </c>
-      <c r="C31" s="12">
+      <c r="C31" s="41">
         <v>49396</v>
       </c>
       <c r="D31" s="13" t="s">
@@ -1418,7 +1427,7 @@
       <c r="B35" s="11">
         <v>12</v>
       </c>
-      <c r="C35" s="12">
+      <c r="C35" s="41">
         <v>109172</v>
       </c>
       <c r="D35" s="13" t="s">
@@ -1432,7 +1441,7 @@
       <c r="B36" s="11">
         <v>13</v>
       </c>
-      <c r="C36" s="12">
+      <c r="C36" s="41">
         <v>49378</v>
       </c>
       <c r="D36" s="13" t="s">

--- a/Programacion de la Ejecucion de Proyectos/Proyectos Plan.xlsx
+++ b/Programacion de la Ejecucion de Proyectos/Proyectos Plan.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI-GitHub\Gestion-ORFEI\Programacion de la Ejecucion de Proyectos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\Programacion de la Ejecucion de Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FB29C3-5E63-411B-BA8A-84A38274CFB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB124A1-7897-4675-AC8F-43B859561C3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{7953C3C7-6C94-4F35-8F46-A28D673ADBAE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{7953C3C7-6C94-4F35-8F46-A28D673ADBAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Proyectos" sheetId="1" r:id="rId1"/>
     <sheet name="Datos" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Proyectos!$A$3:$G$74</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="96">
   <si>
     <t>FUNCION</t>
   </si>
@@ -359,6 +362,9 @@
   </si>
   <si>
     <t>IDEA</t>
+  </si>
+  <si>
+    <t>Proyecto Programados 2020 - PreInversión</t>
   </si>
 </sst>
 </file>
@@ -490,7 +496,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -498,11 +504,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -622,6 +643,102 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -937,10 +1054,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2A921ED-A0B3-4AF0-9707-4B2FAF5C7B93}">
+  <sheetPr filterMode="1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31:D31"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,7 +1075,9 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="32"/>
@@ -970,19 +1092,19 @@
       <c r="G2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="44" t="s">
         <v>83</v>
       </c>
       <c r="F3" s="32" t="s">
@@ -993,7 +1115,7 @@
       </c>
       <c r="H3" s="33"/>
     </row>
-    <row r="4" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1008,7 +1130,7 @@
       </c>
       <c r="G4" s="34"/>
     </row>
-    <row r="5" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1023,20 +1145,23 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="46">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="47">
         <v>45082</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="45" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="E6" s="48">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1050,7 +1175,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1064,7 +1189,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -1078,7 +1203,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -1092,7 +1217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
@@ -1106,7 +1231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -1120,7 +1245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
@@ -1134,7 +1259,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1148,7 +1273,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
@@ -1162,7 +1287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
@@ -1176,21 +1301,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A17" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="50">
         <v>7</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="51">
         <v>49265</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="49" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="E17" s="48">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
@@ -1204,49 +1332,58 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A19" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="50">
         <v>9</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="51">
         <v>108724</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="49" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="E19" s="48">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="50">
         <v>10</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="51">
         <v>108789</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="49" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="E20" s="48">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="50">
         <v>11</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="51">
         <v>108798</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="49" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="E21" s="48">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>12</v>
       </c>
@@ -1256,7 +1393,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>12</v>
       </c>
@@ -1266,21 +1403,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+    <row r="24" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="53">
         <v>1</v>
       </c>
-      <c r="C24" s="12">
+      <c r="C24" s="54">
         <v>2415904</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="55" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="E24" s="48">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>26</v>
       </c>
@@ -1294,7 +1434,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>26</v>
       </c>
@@ -1308,7 +1448,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>26</v>
       </c>
@@ -1322,7 +1462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>26</v>
       </c>
@@ -1336,7 +1476,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>26</v>
       </c>
@@ -1350,7 +1490,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>26</v>
       </c>
@@ -1364,7 +1504,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>26</v>
       </c>
@@ -1378,7 +1518,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="45.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>26</v>
       </c>
@@ -1392,7 +1532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>26</v>
       </c>
@@ -1406,7 +1546,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>26</v>
       </c>
@@ -1420,7 +1560,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>26</v>
       </c>
@@ -1434,7 +1574,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>26</v>
       </c>
@@ -1448,7 +1588,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>40</v>
       </c>
@@ -1461,17 +1601,11 @@
       <c r="D37" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="37">
-        <v>2019</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>86</v>
-      </c>
       <c r="G37" s="38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>40</v>
       </c>
@@ -1484,30 +1618,24 @@
       <c r="D38" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="37">
-        <v>2019</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>86</v>
-      </c>
       <c r="G38" s="38" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B39" s="57">
         <v>3</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="58">
         <v>49542</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="37">
+      <c r="E39" s="48">
         <v>2020</v>
       </c>
       <c r="F39" s="37" t="s">
@@ -1518,52 +1646,52 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B40" s="57">
         <v>4</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="58">
         <v>49555</v>
       </c>
-      <c r="D40" s="17" t="s">
+      <c r="D40" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="37">
+      <c r="E40" s="48">
         <v>2020</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G40" s="40" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="15">
+      <c r="B41" s="57">
         <v>5</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="58">
         <v>49557</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="37">
+      <c r="E41" s="48">
         <v>2020</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G41" s="40" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>40</v>
       </c>
@@ -1573,7 +1701,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>47</v>
       </c>
@@ -1587,7 +1715,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>47</v>
       </c>
@@ -1601,7 +1729,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>47</v>
       </c>
@@ -1615,7 +1743,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>47</v>
       </c>
@@ -1629,7 +1757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>47</v>
       </c>
@@ -1643,7 +1771,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>47</v>
       </c>
@@ -1657,7 +1785,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>47</v>
       </c>
@@ -1671,7 +1799,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>47</v>
       </c>
@@ -1682,16 +1810,19 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="7" t="s">
+      <c r="B51" s="61"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="49" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="E51" s="48">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -1705,7 +1836,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>57</v>
       </c>
@@ -1719,7 +1850,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>57</v>
       </c>
@@ -1733,7 +1864,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>57</v>
       </c>
@@ -1747,7 +1878,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>57</v>
       </c>
@@ -1762,20 +1893,23 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="21">
+      <c r="B57" s="63">
         <v>6</v>
       </c>
-      <c r="C57" s="22">
+      <c r="C57" s="64">
         <v>48932</v>
       </c>
-      <c r="D57" s="23" t="s">
+      <c r="D57" s="65" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="E57" s="48">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
         <v>57</v>
       </c>
@@ -1789,7 +1923,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>57</v>
       </c>
@@ -1803,7 +1937,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>57</v>
       </c>
@@ -1817,7 +1951,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
         <v>67</v>
       </c>
@@ -1832,20 +1966,23 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="66" t="s">
         <v>67</v>
       </c>
-      <c r="B62" s="25">
+      <c r="B62" s="67">
         <v>2</v>
       </c>
-      <c r="C62" s="26">
+      <c r="C62" s="68">
         <v>75659</v>
       </c>
-      <c r="D62" s="27" t="s">
+      <c r="D62" s="69" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="E62" s="48">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
         <v>67</v>
       </c>
@@ -1859,7 +1996,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
         <v>71</v>
       </c>
@@ -1876,7 +2013,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="28" t="s">
         <v>71</v>
       </c>
@@ -1893,7 +2030,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="28" t="s">
         <v>71</v>
       </c>
@@ -1910,7 +2047,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="28" t="s">
         <v>71</v>
       </c>
@@ -1927,7 +2064,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="28" t="s">
         <v>71</v>
       </c>
@@ -1944,7 +2081,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="28" t="s">
         <v>71</v>
       </c>
@@ -1961,7 +2098,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
         <v>71</v>
       </c>
@@ -1978,7 +2115,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
         <v>71</v>
       </c>
@@ -1995,7 +2132,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="28" t="s">
         <v>71</v>
       </c>
@@ -2013,19 +2150,19 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="B73" s="29">
+      <c r="B73" s="71">
         <v>10</v>
       </c>
-      <c r="C73" s="30">
+      <c r="C73" s="72">
         <v>49533</v>
       </c>
-      <c r="D73" s="31" t="s">
+      <c r="D73" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="E73" s="37">
+      <c r="E73" s="48">
         <v>2020</v>
       </c>
       <c r="F73" s="37" t="s">
@@ -2036,19 +2173,19 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="90" x14ac:dyDescent="0.25">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="B74" s="29">
+      <c r="B74" s="71">
         <v>11</v>
       </c>
-      <c r="C74" s="30">
+      <c r="C74" s="72">
         <v>49538</v>
       </c>
-      <c r="D74" s="31" t="s">
+      <c r="D74" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="E74" s="37">
+      <c r="E74" s="48">
         <v>2020</v>
       </c>
       <c r="F74" s="37" t="s">
@@ -2059,8 +2196,16 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <autoFilter ref="A3:G74" xr:uid="{53A9B90F-DA4D-427F-8674-0F0793A74172}">
+    <filterColumn colId="4">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">

--- a/Programacion de la Ejecucion de Proyectos/Proyectos Plan.xlsx
+++ b/Programacion de la Ejecucion de Proyectos/Proyectos Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\Programacion de la Ejecucion de Proyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB124A1-7897-4675-AC8F-43B859561C3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F54E209A-8C8C-4397-AFCA-049EDB51D21A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{7953C3C7-6C94-4F35-8F46-A28D673ADBAE}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Datos" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Proyectos!$A$3:$G$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Proyectos!$A$1:$J$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="106">
   <si>
     <t>FUNCION</t>
   </si>
@@ -361,10 +361,40 @@
     <t xml:space="preserve">SE ENCUENTRA EN FORMULACION </t>
   </si>
   <si>
-    <t>IDEA</t>
-  </si>
-  <si>
     <t>Proyecto Programados 2020 - PreInversión</t>
+  </si>
+  <si>
+    <t>Fecha Inicio</t>
+  </si>
+  <si>
+    <t>Fecha Fin</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Viable</t>
+  </si>
+  <si>
+    <t>Formulación</t>
+  </si>
+  <si>
+    <t>Esatado</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>Reprogramación por Ampliación de plazo</t>
+  </si>
+  <si>
+    <t>Idea</t>
+  </si>
+  <si>
+    <t>No Viable</t>
+  </si>
+  <si>
+    <t>Concluido</t>
   </si>
 </sst>
 </file>
@@ -1057,41 +1087,43 @@
   <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:E74"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="77.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="37" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="37" customWidth="1"/>
-    <col min="7" max="7" width="43.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="37" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="12.5703125" style="37" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="42.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G1" s="3"/>
+      <c r="H1" s="32"/>
+    </row>
+    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="G2" s="3"/>
+      <c r="H2" s="32"/>
+    </row>
+    <row r="3" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>0</v>
       </c>
@@ -1111,11 +1143,19 @@
         <v>84</v>
       </c>
       <c r="G3" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="33"/>
-    </row>
-    <row r="4" spans="1:8" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="J3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1128,9 +1168,11 @@
       <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="34"/>
-    </row>
-    <row r="5" spans="1:8" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+    </row>
+    <row r="5" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1143,8 +1185,10 @@
       <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+    </row>
+    <row r="6" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45" t="s">
         <v>4</v>
       </c>
@@ -1160,8 +1204,10 @@
       <c r="E6" s="48">
         <v>2020</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+    </row>
+    <row r="7" spans="1:10" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1174,8 +1220,10 @@
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+    </row>
+    <row r="8" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1188,8 +1236,10 @@
       <c r="D8" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+    </row>
+    <row r="9" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -1202,8 +1252,10 @@
       <c r="D9" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -1216,8 +1268,10 @@
       <c r="D10" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+    </row>
+    <row r="11" spans="1:10" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
@@ -1230,8 +1284,13 @@
       <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+    </row>
+    <row r="12" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -1244,8 +1303,13 @@
       <c r="D12" s="7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
@@ -1258,8 +1322,13 @@
       <c r="D13" s="7" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G13" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -1272,8 +1341,13 @@
       <c r="D14" s="7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G14" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+    </row>
+    <row r="15" spans="1:10" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>12</v>
       </c>
@@ -1286,8 +1360,13 @@
       <c r="D15" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="51" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
@@ -1300,8 +1379,13 @@
       <c r="D16" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="G16" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A17" s="49" t="s">
         <v>12</v>
       </c>
@@ -1317,8 +1401,14 @@
       <c r="E17" s="48">
         <v>2020</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="34">
+        <v>44058</v>
+      </c>
+      <c r="J17" s="34">
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>12</v>
       </c>
@@ -1331,8 +1421,14 @@
       <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="I18" s="34">
+        <v>44032</v>
+      </c>
+      <c r="J18" s="34">
+        <v>44155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="49" t="s">
         <v>12</v>
       </c>
@@ -1348,8 +1444,14 @@
       <c r="E19" s="48">
         <v>2020</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="I19" s="34">
+        <v>43997</v>
+      </c>
+      <c r="J19" s="34">
+        <v>44074</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="49" t="s">
         <v>12</v>
       </c>
@@ -1365,8 +1467,14 @@
       <c r="E20" s="48">
         <v>2020</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="I20" s="34">
+        <v>44058</v>
+      </c>
+      <c r="J20" s="34">
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="49" t="s">
         <v>12</v>
       </c>
@@ -1382,8 +1490,14 @@
       <c r="E21" s="48">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="34">
+        <v>44058</v>
+      </c>
+      <c r="J21" s="34">
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>12</v>
       </c>
@@ -1392,8 +1506,13 @@
       <c r="D22" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+    </row>
+    <row r="23" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>12</v>
       </c>
@@ -1402,8 +1521,13 @@
       <c r="D23" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="G23" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+    </row>
+    <row r="24" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A24" s="52" t="s">
         <v>26</v>
       </c>
@@ -1419,8 +1543,17 @@
       <c r="E24" s="48">
         <v>2020</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="34">
+        <v>44027</v>
+      </c>
+      <c r="J24" s="34">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>26</v>
       </c>
@@ -1433,8 +1566,17 @@
       <c r="D25" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25" s="34">
+        <v>44027</v>
+      </c>
+      <c r="J25" s="34">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>26</v>
       </c>
@@ -1447,8 +1589,17 @@
       <c r="D26" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" s="34">
+        <v>44027</v>
+      </c>
+      <c r="J26" s="34">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>26</v>
       </c>
@@ -1461,8 +1612,12 @@
       <c r="D27" s="13" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" s="34"/>
+    </row>
+    <row r="28" spans="1:10" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>26</v>
       </c>
@@ -1475,8 +1630,10 @@
       <c r="D28" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="51" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+    </row>
+    <row r="29" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>26</v>
       </c>
@@ -1489,8 +1646,10 @@
       <c r="D29" s="13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+    </row>
+    <row r="30" spans="1:10" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>26</v>
       </c>
@@ -1503,8 +1662,10 @@
       <c r="D30" s="13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+    </row>
+    <row r="31" spans="1:10" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>26</v>
       </c>
@@ -1517,8 +1678,10 @@
       <c r="D31" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="45.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+    </row>
+    <row r="32" spans="1:10" ht="45.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>26</v>
       </c>
@@ -1531,8 +1694,10 @@
       <c r="D32" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+    </row>
+    <row r="33" spans="1:10" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>26</v>
       </c>
@@ -1545,8 +1710,10 @@
       <c r="D33" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+    </row>
+    <row r="34" spans="1:10" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>26</v>
       </c>
@@ -1559,8 +1726,10 @@
       <c r="D34" s="13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+    </row>
+    <row r="35" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>26</v>
       </c>
@@ -1573,8 +1742,14 @@
       <c r="D35" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I35" s="34">
+        <v>44058</v>
+      </c>
+      <c r="J35" s="34">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>26</v>
       </c>
@@ -1587,8 +1762,14 @@
       <c r="D36" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="34">
+        <v>44044</v>
+      </c>
+      <c r="J36" s="34">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>40</v>
       </c>
@@ -1601,11 +1782,13 @@
       <c r="D37" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G37" s="38" t="s">
+      <c r="H37" s="38" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+    </row>
+    <row r="38" spans="1:10" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>40</v>
       </c>
@@ -1618,11 +1801,13 @@
       <c r="D38" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G38" s="38" t="s">
+      <c r="H38" s="38" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+    </row>
+    <row r="39" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A39" s="56" t="s">
         <v>40</v>
       </c>
@@ -1641,11 +1826,17 @@
       <c r="F39" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="G39" s="39" t="s">
+      <c r="H39" s="39" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="I39" s="34">
+        <v>43985</v>
+      </c>
+      <c r="J39" s="34">
+        <v>44042</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="51" x14ac:dyDescent="0.25">
       <c r="A40" s="56" t="s">
         <v>40</v>
       </c>
@@ -1664,11 +1855,18 @@
       <c r="F40" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="G40" s="40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="G40" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="H40" s="40"/>
+      <c r="I40" s="34">
+        <v>44044</v>
+      </c>
+      <c r="J40" s="34">
+        <v>44165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="56" t="s">
         <v>40</v>
       </c>
@@ -1687,11 +1885,16 @@
       <c r="F41" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="G41" s="40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G41" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+    </row>
+    <row r="42" spans="1:10" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>40</v>
       </c>
@@ -1700,8 +1903,10 @@
       <c r="D42" s="17" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+    </row>
+    <row r="43" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>47</v>
       </c>
@@ -1714,8 +1919,10 @@
       <c r="D43" s="7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+    </row>
+    <row r="44" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>47</v>
       </c>
@@ -1728,8 +1935,10 @@
       <c r="D44" s="7" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+    </row>
+    <row r="45" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
         <v>47</v>
       </c>
@@ -1742,8 +1951,10 @@
       <c r="D45" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="34"/>
+      <c r="J45" s="34"/>
+    </row>
+    <row r="46" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>47</v>
       </c>
@@ -1756,8 +1967,10 @@
       <c r="D46" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I46" s="34"/>
+      <c r="J46" s="34"/>
+    </row>
+    <row r="47" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>47</v>
       </c>
@@ -1770,8 +1983,10 @@
       <c r="D47" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+    </row>
+    <row r="48" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>47</v>
       </c>
@@ -1784,8 +1999,10 @@
       <c r="D48" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+    </row>
+    <row r="49" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>47</v>
       </c>
@@ -1798,8 +2015,10 @@
       <c r="D49" s="7" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+    </row>
+    <row r="50" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>47</v>
       </c>
@@ -1808,8 +2027,10 @@
       <c r="D50" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+    </row>
+    <row r="51" spans="1:10" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="60" t="s">
         <v>47</v>
       </c>
@@ -1821,8 +2042,10 @@
       <c r="E51" s="48">
         <v>2020</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="51" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+    </row>
+    <row r="52" spans="1:10" ht="51" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>57</v>
       </c>
@@ -1835,8 +2058,10 @@
       <c r="D52" s="23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+    </row>
+    <row r="53" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
         <v>57</v>
       </c>
@@ -1849,8 +2074,10 @@
       <c r="D53" s="23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+    </row>
+    <row r="54" spans="1:10" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
         <v>57</v>
       </c>
@@ -1863,8 +2090,10 @@
       <c r="D54" s="23" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I54" s="34"/>
+      <c r="J54" s="34"/>
+    </row>
+    <row r="55" spans="1:10" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>57</v>
       </c>
@@ -1877,8 +2106,10 @@
       <c r="D55" s="23" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+    </row>
+    <row r="56" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>57</v>
       </c>
@@ -1891,8 +2122,14 @@
       <c r="D56" s="23" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="I56" s="34">
+        <v>44044</v>
+      </c>
+      <c r="J56" s="34">
+        <v>44135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A57" s="62" t="s">
         <v>57</v>
       </c>
@@ -1908,8 +2145,14 @@
       <c r="E57" s="48">
         <v>2020</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I57" s="34">
+        <v>44044</v>
+      </c>
+      <c r="J57" s="34">
+        <v>44150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
         <v>57</v>
       </c>
@@ -1922,8 +2165,10 @@
       <c r="D58" s="23" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+    </row>
+    <row r="59" spans="1:10" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>57</v>
       </c>
@@ -1936,8 +2181,10 @@
       <c r="D59" s="23" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+    </row>
+    <row r="60" spans="1:10" ht="38.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>57</v>
       </c>
@@ -1950,8 +2197,10 @@
       <c r="D60" s="23" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+    </row>
+    <row r="61" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24" t="s">
         <v>67</v>
       </c>
@@ -1964,8 +2213,13 @@
       <c r="D61" s="27" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="G61" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+    </row>
+    <row r="62" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="66" t="s">
         <v>67</v>
       </c>
@@ -1981,8 +2235,13 @@
       <c r="E62" s="48">
         <v>2020</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G62" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="I62" s="34"/>
+      <c r="J62" s="34"/>
+    </row>
+    <row r="63" spans="1:10" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
         <v>67</v>
       </c>
@@ -1995,8 +2254,10 @@
       <c r="D63" s="27" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+    </row>
+    <row r="64" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="28" t="s">
         <v>71</v>
       </c>
@@ -2009,11 +2270,13 @@
       <c r="D64" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="G64" s="35" t="s">
+      <c r="H64" s="35" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="34"/>
+      <c r="J64" s="34"/>
+    </row>
+    <row r="65" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="28" t="s">
         <v>71</v>
       </c>
@@ -2026,11 +2289,13 @@
       <c r="D65" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="G65" s="35" t="s">
+      <c r="H65" s="35" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+    </row>
+    <row r="66" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="28" t="s">
         <v>71</v>
       </c>
@@ -2043,11 +2308,13 @@
       <c r="D66" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="G66" s="35" t="s">
+      <c r="H66" s="35" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="34"/>
+      <c r="J66" s="34"/>
+    </row>
+    <row r="67" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="28" t="s">
         <v>71</v>
       </c>
@@ -2060,11 +2327,13 @@
       <c r="D67" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="G67" s="35" t="s">
+      <c r="H67" s="35" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="34"/>
+      <c r="J67" s="34"/>
+    </row>
+    <row r="68" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="28" t="s">
         <v>71</v>
       </c>
@@ -2077,11 +2346,13 @@
       <c r="D68" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="G68" s="35" t="s">
+      <c r="H68" s="35" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="34"/>
+      <c r="J68" s="34"/>
+    </row>
+    <row r="69" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="28" t="s">
         <v>71</v>
       </c>
@@ -2094,11 +2365,13 @@
       <c r="D69" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="G69" s="35" t="s">
+      <c r="H69" s="35" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="34"/>
+      <c r="J69" s="34"/>
+    </row>
+    <row r="70" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="28" t="s">
         <v>71</v>
       </c>
@@ -2111,11 +2384,13 @@
       <c r="D70" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="G70" s="35" t="s">
+      <c r="H70" s="35" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I70" s="34"/>
+      <c r="J70" s="34"/>
+    </row>
+    <row r="71" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="28" t="s">
         <v>71</v>
       </c>
@@ -2128,11 +2403,13 @@
       <c r="D71" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="G71" s="35" t="s">
+      <c r="H71" s="35" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+    </row>
+    <row r="72" spans="1:10" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="28" t="s">
         <v>71</v>
       </c>
@@ -2145,11 +2422,13 @@
       <c r="D72" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="G72" s="35" t="s">
+      <c r="H72" s="35" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="I72" s="34"/>
+      <c r="J72" s="34"/>
+    </row>
+    <row r="73" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="70" t="s">
         <v>71</v>
       </c>
@@ -2168,11 +2447,17 @@
       <c r="F73" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="G73" s="35" t="s">
+      <c r="H73" s="35" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="I73" s="34">
+        <v>44027</v>
+      </c>
+      <c r="J73" s="34">
+        <v>44180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="70" t="s">
         <v>71</v>
       </c>
@@ -2191,16 +2476,19 @@
       <c r="F74" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="G74" s="36" t="s">
+      <c r="H74" s="36" t="s">
         <v>90</v>
       </c>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G74" xr:uid="{53A9B90F-DA4D-427F-8674-0F0793A74172}">
-    <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
+  <autoFilter ref="A1:J74" xr:uid="{431A1B0D-3C4E-45AB-933B-DADDB9E51B7F}">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Fecha Inicio"/>
+        <dateGroupItem year="2020" dateTimeGrouping="year"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2208,7 +2496,7 @@
   <pageSetup paperSize="9" scale="73" orientation="landscape" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D165B9F4-9D41-4478-BC3D-575B3D97E89A}">
           <x14:formula1>
             <xm:f>Datos!$A$2:$A$5</xm:f>
@@ -2221,6 +2509,18 @@
           </x14:formula1>
           <xm:sqref>F4:F36 F42:F63</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AFE6F4BD-A99F-4897-AC14-4B050ECD4D3B}">
+          <x14:formula1>
+            <xm:f>Datos!$C$2:$C$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>G5:G74</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{09019B0F-032C-4025-8EF5-4A8F2AABF3AF}">
+          <x14:formula1>
+            <xm:f>Datos!$C$2:$C$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>G4</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -2229,10 +2529,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BFD30D-0252-4F61-B9CF-2267AEAF3689}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,38 +2541,53 @@
     <col min="2" max="2" width="5.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>83</v>
       </c>
       <c r="B1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
+      </c>
+      <c r="C5" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
